--- a/data/trans_dic/P57_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P57_R2-Clase-trans_dic.xlsx
@@ -618,7 +618,7 @@
         <v>0.3210161247244406</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.4665316675928983</v>
+        <v>0.4665316675928982</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.3422045964810235</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3172268308371905</v>
+        <v>0.3089871921083919</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3923316400488602</v>
+        <v>0.3951043846982956</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2736124067617056</v>
+        <v>0.2717944840197122</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4281575149347366</v>
+        <v>0.4271395797285276</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3126297795179195</v>
+        <v>0.3092646958402463</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4245787995219048</v>
+        <v>0.4223710130069245</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4079029694462374</v>
+        <v>0.4059468727650618</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4809358537440535</v>
+        <v>0.4834578858920742</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3711905777312838</v>
+        <v>0.3703767281052251</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5045535157061987</v>
+        <v>0.5090837952279075</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3777810055433813</v>
+        <v>0.3789581766333743</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4830772896162727</v>
+        <v>0.4831062990712515</v>
       </c>
     </row>
     <row r="7">
@@ -706,7 +706,7 @@
         <v>0.2850154748823463</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.4663768136045189</v>
+        <v>0.4663768136045188</v>
       </c>
     </row>
     <row r="8">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2657738958521727</v>
+        <v>0.2720265318703032</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4326753012732792</v>
+        <v>0.4357799505997612</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2069683409711852</v>
+        <v>0.205658178738211</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4043886069709129</v>
+        <v>0.403662780729405</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2489201624737664</v>
+        <v>0.2539661838569729</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.4324451800781912</v>
+        <v>0.4325696757173217</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3679664049115823</v>
+        <v>0.3744288050827144</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5261886322890368</v>
+        <v>0.5306787194125996</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2970978391110639</v>
+        <v>0.2970608319174722</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4914830587189363</v>
+        <v>0.4957522380658835</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3197719091593856</v>
+        <v>0.326159591464087</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4971021212007586</v>
+        <v>0.4985154391064873</v>
       </c>
     </row>
     <row r="10">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2569859057338558</v>
+        <v>0.2552638136418672</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4342585553181538</v>
+        <v>0.43279882066191</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1827764170116675</v>
+        <v>0.1869424126358888</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3307496333223301</v>
+        <v>0.3347514292615722</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2481480162896562</v>
+        <v>0.2471061045690436</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4179494730050181</v>
+        <v>0.4178876246895287</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.336410634596562</v>
+        <v>0.3386219982002274</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5283460481887748</v>
+        <v>0.5254737086129536</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.316990157789886</v>
+        <v>0.3156606976085079</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4543715896823509</v>
+        <v>0.459884790766478</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3157959185094821</v>
+        <v>0.3146286230323685</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4962865301054291</v>
+        <v>0.4946337801003051</v>
       </c>
     </row>
     <row r="13">
@@ -858,7 +858,7 @@
         <v>0.2787657897720678</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.4504075492866969</v>
+        <v>0.450407549286697</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.3032274987610691</v>
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.254265834502101</v>
+        <v>0.2547843047053598</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4199121215082108</v>
+        <v>0.4131360063308326</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2708835834210615</v>
+        <v>0.2692462191322917</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4007259805012804</v>
+        <v>0.4011539320626847</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2682624990696226</v>
+        <v>0.2691152874895117</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.4188942506006781</v>
+        <v>0.4181801914180376</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3066686639843788</v>
+        <v>0.3066515797798867</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4860559056266759</v>
+        <v>0.4814988516635517</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3385350773295724</v>
+        <v>0.3337930543327726</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4576661018087484</v>
+        <v>0.4609519284496205</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3114933674494686</v>
+        <v>0.3112934691772464</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4650827778082874</v>
+        <v>0.4645850141838656</v>
       </c>
     </row>
     <row r="16">
@@ -952,7 +952,7 @@
         <v>0.2105781882713949</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.3664137625067155</v>
+        <v>0.3664137625067154</v>
       </c>
     </row>
     <row r="17">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2090199726973969</v>
+        <v>0.2085062827428142</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.372064812022194</v>
+        <v>0.3728702433958874</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1536902194200166</v>
+        <v>0.157847977787748</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3017978514794725</v>
+        <v>0.3036841226273773</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1880257428219616</v>
+        <v>0.1894177408676199</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3417043273872928</v>
+        <v>0.3441735858797357</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2775691478513922</v>
+        <v>0.2801684455963747</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4615731113117686</v>
+        <v>0.46567656938555</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2133281364229158</v>
+        <v>0.2160877168970554</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.35763796905039</v>
+        <v>0.3581951493803555</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2333996910100944</v>
+        <v>0.2338950880366549</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3922441874917464</v>
+        <v>0.3934605695677874</v>
       </c>
     </row>
     <row r="19">
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3933903671230682</v>
+        <v>0.3918038371494472</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5311028416359452</v>
+        <v>0.5412710011639484</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2502665795997954</v>
+        <v>0.2520352353633025</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3881612528142562</v>
+        <v>0.3920428463306513</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2907344660942116</v>
+        <v>0.2883866124677728</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.4369113772343782</v>
+        <v>0.4336265306885042</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.5132659995137667</v>
+        <v>0.5108779140570369</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.7320164724180063</v>
+        <v>0.7204613435609515</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3059091209692093</v>
+        <v>0.3073449111465433</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.4591867596880331</v>
+        <v>0.4623743106249142</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3423394735686545</v>
+        <v>0.3415898658273899</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.5053863366319269</v>
+        <v>0.5064772690828947</v>
       </c>
     </row>
     <row r="22">
@@ -1104,7 +1104,7 @@
         <v>0.3036616351741052</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.4643417826714897</v>
+        <v>0.4643417826714896</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.2639149011515123</v>
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2881322253881308</v>
+        <v>0.2873755685470246</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4459409969455543</v>
+        <v>0.4462142183990522</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2493081215572955</v>
+        <v>0.249845995205775</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3970233230394548</v>
+        <v>0.3964498947875003</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2729180918552173</v>
+        <v>0.2727873699162383</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.4254091876752191</v>
+        <v>0.4249281795539402</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3185994199832143</v>
+        <v>0.3199636429837617</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4832052562090844</v>
+        <v>0.4839329191705009</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2793927880003454</v>
+        <v>0.2796188647419191</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4247279051841988</v>
+        <v>0.4266380295030978</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2944033845043196</v>
+        <v>0.2951399263406982</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4490559654714784</v>
+        <v>0.4496159646606087</v>
       </c>
     </row>
     <row r="25">
@@ -1357,22 +1357,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>135500</v>
+        <v>131981</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>216025</v>
+        <v>217552</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>94414</v>
+        <v>93787</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>208632</v>
+        <v>208136</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>241415</v>
+        <v>238816</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>440669</v>
+        <v>438378</v>
       </c>
     </row>
     <row r="7">
@@ -1383,22 +1383,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>174232</v>
+        <v>173396</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>264812</v>
+        <v>266201</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>128085</v>
+        <v>127804</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>245858</v>
+        <v>248066</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>291725</v>
+        <v>292634</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>501384</v>
+        <v>501415</v>
       </c>
     </row>
     <row r="8">
@@ -1465,22 +1465,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>99607</v>
+        <v>101950</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>208785</v>
+        <v>210283</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>76371</v>
+        <v>75887</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>170437</v>
+        <v>170131</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>185141</v>
+        <v>188894</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>390936</v>
+        <v>391049</v>
       </c>
     </row>
     <row r="11">
@@ -1491,22 +1491,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>137907</v>
+        <v>140329</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>253910</v>
+        <v>256076</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>109628</v>
+        <v>109615</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>207145</v>
+        <v>208944</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>237839</v>
+        <v>242590</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>449387</v>
+        <v>450665</v>
       </c>
     </row>
     <row r="12">
@@ -1573,22 +1573,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>133370</v>
+        <v>132477</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>204802</v>
+        <v>204113</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>30081</v>
+        <v>30767</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>62015</v>
+        <v>62765</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>169624</v>
+        <v>168911</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>275474</v>
+        <v>275433</v>
       </c>
     </row>
     <row r="15">
@@ -1599,22 +1599,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>174590</v>
+        <v>175738</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>249174</v>
+        <v>247820</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>52170</v>
+        <v>51951</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>85193</v>
+        <v>86227</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>215865</v>
+        <v>215067</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>327107</v>
+        <v>326018</v>
       </c>
     </row>
     <row r="16">
@@ -1681,22 +1681,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>291255</v>
+        <v>291849</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>472620</v>
+        <v>464993</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>223438</v>
+        <v>222088</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>343280</v>
+        <v>343647</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>528565</v>
+        <v>530245</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>830318</v>
+        <v>828903</v>
       </c>
     </row>
     <row r="19">
@@ -1707,22 +1707,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>351282</v>
+        <v>351262</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>547066</v>
+        <v>541937</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>279241</v>
+        <v>275329</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>392058</v>
+        <v>394873</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>613743</v>
+        <v>613350</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>921872</v>
+        <v>920885</v>
       </c>
     </row>
     <row r="20">
@@ -1789,22 +1789,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>129296</v>
+        <v>128978</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>210362</v>
+        <v>210817</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>113121</v>
+        <v>116181</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>249436</v>
+        <v>250995</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>254703</v>
+        <v>256588</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>475615</v>
+        <v>479052</v>
       </c>
     </row>
     <row r="23">
@@ -1815,22 +1815,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>171700</v>
+        <v>173307</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>260969</v>
+        <v>263289</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>157017</v>
+        <v>159048</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>295588</v>
+        <v>296049</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>316167</v>
+        <v>316838</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>545961</v>
+        <v>547654</v>
       </c>
     </row>
     <row r="24">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>112960</v>
+        <v>112505</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>125992</v>
+        <v>128405</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>269195</v>
+        <v>271097</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>324463</v>
+        <v>327707</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>396207</v>
+        <v>393007</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>468861</v>
+        <v>465335</v>
       </c>
     </row>
     <row r="27">
@@ -1923,22 +1923,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>147382</v>
+        <v>146696</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>173655</v>
+        <v>170914</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>329046</v>
+        <v>330590</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>383833</v>
+        <v>386497</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>466533</v>
+        <v>465511</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>542343</v>
+        <v>543513</v>
       </c>
     </row>
     <row r="28">
@@ -2005,22 +2005,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>971612</v>
+        <v>969061</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1530877</v>
+        <v>1531815</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>876357</v>
+        <v>878248</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>1435354</v>
+        <v>1433281</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1879658</v>
+        <v>1878758</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>2998370</v>
+        <v>2994980</v>
       </c>
     </row>
     <row r="31">
@@ -2031,22 +2031,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>1074351</v>
+        <v>1078951</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>1658802</v>
+        <v>1661300</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>982110</v>
+        <v>982904</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>1535514</v>
+        <v>1542419</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>2027633</v>
+        <v>2032706</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>3165038</v>
+        <v>3168985</v>
       </c>
     </row>
     <row r="32">
